--- a/preguntas.xlsx
+++ b/preguntas.xlsx
@@ -14,276 +14,495 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="90">
-  <si>
-    <t>bloque</t>
-  </si>
-  <si>
-    <t>complejidad</t>
-  </si>
-  <si>
-    <t>pregunta</t>
-  </si>
-  <si>
-    <t>opciones</t>
-  </si>
-  <si>
-    <t>respuesta_correcta</t>
-  </si>
-  <si>
-    <t>fuentes_datos</t>
-  </si>
-  <si>
-    <t>ingesta</t>
-  </si>
-  <si>
-    <t>procesamiento</t>
-  </si>
-  <si>
-    <t>sql</t>
-  </si>
-  <si>
-    <t>python</t>
-  </si>
-  <si>
-    <t>baja</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>alta</t>
-  </si>
-  <si>
-    <t>Pregunta 1 baja de fuentes_datos</t>
-  </si>
-  <si>
-    <t>Pregunta 2 baja de fuentes_datos</t>
-  </si>
-  <si>
-    <t>Pregunta 3 baja de fuentes_datos</t>
-  </si>
-  <si>
-    <t>Pregunta 4 baja de fuentes_datos</t>
-  </si>
-  <si>
-    <t>Pregunta 5 baja de fuentes_datos</t>
-  </si>
-  <si>
-    <t>Pregunta 1 media de fuentes_datos</t>
-  </si>
-  <si>
-    <t>Pregunta 2 media de fuentes_datos</t>
-  </si>
-  <si>
-    <t>Pregunta 3 media de fuentes_datos</t>
-  </si>
-  <si>
-    <t>Pregunta 4 media de fuentes_datos</t>
-  </si>
-  <si>
-    <t>Pregunta 5 media de fuentes_datos</t>
-  </si>
-  <si>
-    <t>Pregunta 1 alta de fuentes_datos</t>
-  </si>
-  <si>
-    <t>Pregunta 2 alta de fuentes_datos</t>
-  </si>
-  <si>
-    <t>Pregunta 3 alta de fuentes_datos</t>
-  </si>
-  <si>
-    <t>Pregunta 4 alta de fuentes_datos</t>
-  </si>
-  <si>
-    <t>Pregunta 5 alta de fuentes_datos</t>
-  </si>
-  <si>
-    <t>Pregunta 1 baja de ingesta</t>
-  </si>
-  <si>
-    <t>Pregunta 2 baja de ingesta</t>
-  </si>
-  <si>
-    <t>Pregunta 3 baja de ingesta</t>
-  </si>
-  <si>
-    <t>Pregunta 4 baja de ingesta</t>
-  </si>
-  <si>
-    <t>Pregunta 5 baja de ingesta</t>
-  </si>
-  <si>
-    <t>Pregunta 1 media de ingesta</t>
-  </si>
-  <si>
-    <t>Pregunta 2 media de ingesta</t>
-  </si>
-  <si>
-    <t>Pregunta 3 media de ingesta</t>
-  </si>
-  <si>
-    <t>Pregunta 4 media de ingesta</t>
-  </si>
-  <si>
-    <t>Pregunta 5 media de ingesta</t>
-  </si>
-  <si>
-    <t>Pregunta 1 alta de ingesta</t>
-  </si>
-  <si>
-    <t>Pregunta 2 alta de ingesta</t>
-  </si>
-  <si>
-    <t>Pregunta 3 alta de ingesta</t>
-  </si>
-  <si>
-    <t>Pregunta 4 alta de ingesta</t>
-  </si>
-  <si>
-    <t>Pregunta 5 alta de ingesta</t>
-  </si>
-  <si>
-    <t>Pregunta 1 baja de procesamiento</t>
-  </si>
-  <si>
-    <t>Pregunta 2 baja de procesamiento</t>
-  </si>
-  <si>
-    <t>Pregunta 3 baja de procesamiento</t>
-  </si>
-  <si>
-    <t>Pregunta 4 baja de procesamiento</t>
-  </si>
-  <si>
-    <t>Pregunta 5 baja de procesamiento</t>
-  </si>
-  <si>
-    <t>Pregunta 1 media de procesamiento</t>
-  </si>
-  <si>
-    <t>Pregunta 2 media de procesamiento</t>
-  </si>
-  <si>
-    <t>Pregunta 3 media de procesamiento</t>
-  </si>
-  <si>
-    <t>Pregunta 4 media de procesamiento</t>
-  </si>
-  <si>
-    <t>Pregunta 5 media de procesamiento</t>
-  </si>
-  <si>
-    <t>Pregunta 1 alta de procesamiento</t>
-  </si>
-  <si>
-    <t>Pregunta 2 alta de procesamiento</t>
-  </si>
-  <si>
-    <t>Pregunta 3 alta de procesamiento</t>
-  </si>
-  <si>
-    <t>Pregunta 4 alta de procesamiento</t>
-  </si>
-  <si>
-    <t>Pregunta 5 alta de procesamiento</t>
-  </si>
-  <si>
-    <t>Pregunta 1 baja de sql</t>
-  </si>
-  <si>
-    <t>Pregunta 2 baja de sql</t>
-  </si>
-  <si>
-    <t>Pregunta 3 baja de sql</t>
-  </si>
-  <si>
-    <t>Pregunta 4 baja de sql</t>
-  </si>
-  <si>
-    <t>Pregunta 5 baja de sql</t>
-  </si>
-  <si>
-    <t>Pregunta 1 media de sql</t>
-  </si>
-  <si>
-    <t>Pregunta 2 media de sql</t>
-  </si>
-  <si>
-    <t>Pregunta 3 media de sql</t>
-  </si>
-  <si>
-    <t>Pregunta 4 media de sql</t>
-  </si>
-  <si>
-    <t>Pregunta 5 media de sql</t>
-  </si>
-  <si>
-    <t>Pregunta 1 alta de sql</t>
-  </si>
-  <si>
-    <t>Pregunta 2 alta de sql</t>
-  </si>
-  <si>
-    <t>Pregunta 3 alta de sql</t>
-  </si>
-  <si>
-    <t>Pregunta 4 alta de sql</t>
-  </si>
-  <si>
-    <t>Pregunta 5 alta de sql</t>
-  </si>
-  <si>
-    <t>Pregunta 1 baja de python</t>
-  </si>
-  <si>
-    <t>Pregunta 2 baja de python</t>
-  </si>
-  <si>
-    <t>Pregunta 3 baja de python</t>
-  </si>
-  <si>
-    <t>Pregunta 4 baja de python</t>
-  </si>
-  <si>
-    <t>Pregunta 5 baja de python</t>
-  </si>
-  <si>
-    <t>Pregunta 1 media de python</t>
-  </si>
-  <si>
-    <t>Pregunta 2 media de python</t>
-  </si>
-  <si>
-    <t>Pregunta 3 media de python</t>
-  </si>
-  <si>
-    <t>Pregunta 4 media de python</t>
-  </si>
-  <si>
-    <t>Pregunta 5 media de python</t>
-  </si>
-  <si>
-    <t>Pregunta 1 alta de python</t>
-  </si>
-  <si>
-    <t>Pregunta 2 alta de python</t>
-  </si>
-  <si>
-    <t>Pregunta 3 alta de python</t>
-  </si>
-  <si>
-    <t>Pregunta 4 alta de python</t>
-  </si>
-  <si>
-    <t>Pregunta 5 alta de python</t>
-  </si>
-  <si>
-    <t>['Opción A', 'Opción B', 'Opción C']</t>
-  </si>
-  <si>
-    <t>Opción A</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="163">
+  <si>
+    <t>Bloque</t>
+  </si>
+  <si>
+    <t>Complejidad</t>
+  </si>
+  <si>
+    <t>Pregunta</t>
+  </si>
+  <si>
+    <t>Opciones</t>
+  </si>
+  <si>
+    <t>Respuesta_Correcta</t>
+  </si>
+  <si>
+    <t>Fuentes de Datos</t>
+  </si>
+  <si>
+    <t>Capa de Ingesta</t>
+  </si>
+  <si>
+    <t>Capa de Procesamiento</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>¿Qué es una API REST?</t>
+  </si>
+  <si>
+    <t>¿Qué método HTTP se usa comúnmente para obtener datos?</t>
+  </si>
+  <si>
+    <t>¿Qué es un endpoint en una API?</t>
+  </si>
+  <si>
+    <t>¿Cuál es una diferencia clave entre bases de datos relacionales y no relacionales?</t>
+  </si>
+  <si>
+    <t>¿Cuál es una librería en Python para consumir APIs REST?</t>
+  </si>
+  <si>
+    <t>¿Qué protocolo es común para autenticación de APIs?</t>
+  </si>
+  <si>
+    <t>¿Qué es paginación en una API?</t>
+  </si>
+  <si>
+    <t>¿Qué motor se usa para consultar MongoDB desde Python?</t>
+  </si>
+  <si>
+    <t>¿Cómo se integra una API REST con una base de datos PostgreSQL?</t>
+  </si>
+  <si>
+    <t>¿Qué patrón arquitectónico sigue una API-first?</t>
+  </si>
+  <si>
+    <t>¿Qué es Apache Kafka?</t>
+  </si>
+  <si>
+    <t>¿Qué es un topic en Kafka?</t>
+  </si>
+  <si>
+    <t>¿Qué es un productor en Kafka?</t>
+  </si>
+  <si>
+    <t>¿Qué hace un consumidor en Kafka?</t>
+  </si>
+  <si>
+    <t>¿Qué herramienta permite capturar cambios de una base de datos a Kafka?</t>
+  </si>
+  <si>
+    <t>¿Qué hace un broker en Kafka?</t>
+  </si>
+  <si>
+    <t>¿Qué tipo de arquitectura es Kafka?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el propósito de un conector CDC?</t>
+  </si>
+  <si>
+    <t>¿Qué componentes integran un cluster Kafka típico?</t>
+  </si>
+  <si>
+    <t>¿Qué ventaja tiene Kafka frente a otros sistemas de mensajería?</t>
+  </si>
+  <si>
+    <t>¿Qué es PySpark?</t>
+  </si>
+  <si>
+    <t>¿Qué hace un RDD en Spark?</t>
+  </si>
+  <si>
+    <t>¿Qué es un DataFrame en Spark?</t>
+  </si>
+  <si>
+    <t>¿Cuál es una ventaja de usar Spark sobre pandas?</t>
+  </si>
+  <si>
+    <t>¿Qué lenguaje no es soportado por Spark?</t>
+  </si>
+  <si>
+    <t>¿Qué permite Apache Flink?</t>
+  </si>
+  <si>
+    <t>¿Cómo se escribe un DataFrame en Spark a una base de datos relacional?</t>
+  </si>
+  <si>
+    <t>¿Qué es una ventana en procesamiento de streaming?</t>
+  </si>
+  <si>
+    <t>¿Cómo se controla el paralelismo en Spark?</t>
+  </si>
+  <si>
+    <t>¿Qué es lazy evaluation en Spark?</t>
+  </si>
+  <si>
+    <t>¿Qué hace una consulta SELECT en SQL?</t>
+  </si>
+  <si>
+    <t>¿Cuál es la cláusula para ordenar resultados?</t>
+  </si>
+  <si>
+    <t>¿Qué operador se usa para combinar tablas en SQL?</t>
+  </si>
+  <si>
+    <t>¿Qué hace una cláusula GROUP BY?</t>
+  </si>
+  <si>
+    <t>¿Qué comando actualiza datos en una tabla?</t>
+  </si>
+  <si>
+    <t>¿Qué es una subconsulta?</t>
+  </si>
+  <si>
+    <t>¿Qué diferencia hay entre INNER JOIN y LEFT JOIN?</t>
+  </si>
+  <si>
+    <t>¿Qué base de datos es NoSQL?</t>
+  </si>
+  <si>
+    <t>¿Cómo se realiza una ventana de agregación en SQL Server?</t>
+  </si>
+  <si>
+    <t>¿Qué permite un índice en una base de datos?</t>
+  </si>
+  <si>
+    <t>¿Qué es una función en Python?</t>
+  </si>
+  <si>
+    <t>¿Qué símbolo se usa para definir una función?</t>
+  </si>
+  <si>
+    <t>¿Qué tipo de estructura es una lista en Python?</t>
+  </si>
+  <si>
+    <t>¿Qué es un decorador en Python?</t>
+  </si>
+  <si>
+    <t>¿Qué es herencia en POO?</t>
+  </si>
+  <si>
+    <t>¿Qué palabra se usa para crear una clase en Python?</t>
+  </si>
+  <si>
+    <t>¿Qué es polimorfismo en programación?</t>
+  </si>
+  <si>
+    <t>¿Qué hace __init__ en una clase?</t>
+  </si>
+  <si>
+    <t>¿Qué es una metaclase en Python?</t>
+  </si>
+  <si>
+    <t>¿Qué módulo permite manejo avanzado de concurrencia?</t>
+  </si>
+  <si>
+    <t>Una base de datos; Un tipo de servidor; Un tipo de API que usa HTTP; Una herramienta de frontend</t>
+  </si>
+  <si>
+    <t>POST; GET; PUT; DELETE</t>
+  </si>
+  <si>
+    <t>Una IP fija; Una ruta a un recurso específico; Un archivo JSON; Un backend privado</t>
+  </si>
+  <si>
+    <t>Las relacionales no usan SQL; Las no relacionales no tienen esquema fijo; Las relacionales no pueden escalar; Las no relacionales solo almacenan imágenes</t>
+  </si>
+  <si>
+    <t>pymongo; requests; sqlalchemy; numpy</t>
+  </si>
+  <si>
+    <t>OAuth2; FTP; TCP; IMAP</t>
+  </si>
+  <si>
+    <t>Separar los datos en bloques para su consumo; Usar JSON en vez de XML; Repetir llamadas múltiples veces; Conectar por FTP a la API</t>
+  </si>
+  <si>
+    <t>sqlalchemy; pymongo; psycopg2; redis-py</t>
+  </si>
+  <si>
+    <t>Usando pandas.read_json; Con requests y psycopg2; Con MongoDB Compass; Desde Excel</t>
+  </si>
+  <si>
+    <t>Se crea primero la base de datos; Se diseña la API antes del backend; No hay frontend; No se usa documentación</t>
+  </si>
+  <si>
+    <t>Una base de datos NoSQL; Una plataforma de mensajería por eventos; Un sistema de archivos; Un sistema de logs</t>
+  </si>
+  <si>
+    <t>Una tabla de base de datos; Una IP; Un canal de comunicación; Un proceso</t>
+  </si>
+  <si>
+    <t>Un consumidor de datos; Un generador de eventos; Un archivo; Un índice de búsqueda</t>
+  </si>
+  <si>
+    <t>Envía datos al topic; Lee mensajes desde un topic; Crea un cluster; Monitorea logs</t>
+  </si>
+  <si>
+    <t>NiFi; Airflow; Debezium; Superset</t>
+  </si>
+  <si>
+    <t>Produce mensajes; Distribuye y almacena mensajes; Consume tópicos; Crea APIs</t>
+  </si>
+  <si>
+    <t>Monolítica; Cliente-servidor; Distribuida; Centralizada</t>
+  </si>
+  <si>
+    <t>Leer mensajes del topic; Capturar cambios en bases de datos; Monitorear errores; Eliminar tablas</t>
+  </si>
+  <si>
+    <t>Solo producers; Producers y consumers; Brokers, topics y zookeepers; Solo bases de datos</t>
+  </si>
+  <si>
+    <t>Mayor latencia; Poca escalabilidad; Persistencia de mensajes y alto throughput; Usa SQL nativo</t>
+  </si>
+  <si>
+    <t>Un sistema de mensajería; Una base de datos; Una API de Python para Apache Spark; Un visualizador de datos</t>
+  </si>
+  <si>
+    <t>Almacena datos en memoria distribuida; Envía mensajes a Kafka; Consume datos de MongoDB; Genera reportes HTML</t>
+  </si>
+  <si>
+    <t>Un gráfico; Una API para leer archivos Excel; Una estructura de datos tabular; Una base de datos no relacional</t>
+  </si>
+  <si>
+    <t>Menor velocidad; Funciona solo con archivos JSON; Escala horizontalmente con grandes volúmenes; Usa SQLite</t>
+  </si>
+  <si>
+    <t>Python; Scala; SQL; PHP</t>
+  </si>
+  <si>
+    <t>Procesamiento en tiempo real de flujos de datos; Diseño de interfaces web; Visualización de dashboards; Creación de APIs REST</t>
+  </si>
+  <si>
+    <t>Con pandas.write(); Con spark.write.jdbc(); Con json.dump(); Con pymongo.insert()</t>
+  </si>
+  <si>
+    <t>Una conexión segura; Un rango de tiempo o registros; Un sistema operativo; Una partición de disco</t>
+  </si>
+  <si>
+    <t>Con Kafka; Con número de nodos; Con el número de particiones; Con Apache Airflow</t>
+  </si>
+  <si>
+    <t>Evaluar datos en tiempo real; Ejecutar operaciones cuando se requiere una acción; Procesar datos con delay; Evitar usar memoria RAM</t>
+  </si>
+  <si>
+    <t>Elimina datos; Inserta registros; Filtra registros; Recupera datos de una tabla</t>
+  </si>
+  <si>
+    <t>GROUP BY; ORDER BY; JOIN; LIMIT</t>
+  </si>
+  <si>
+    <t>UNION; JOIN; MERGE; APPEND</t>
+  </si>
+  <si>
+    <t>Ordena datos; Agrupa datos por columnas; Filtra datos por condición; Elimina duplicados</t>
+  </si>
+  <si>
+    <t>INSERT; DELETE; UPDATE; RENAME</t>
+  </si>
+  <si>
+    <t>Una consulta externa; Una consulta dentro de otra; Una tabla temporal; Una función SQL</t>
+  </si>
+  <si>
+    <t>LEFT trae más columnas; INNER es más rápido; LEFT devuelve todos los registros de la tabla izquierda; LEFT solo une si hay claves primarias</t>
+  </si>
+  <si>
+    <t>PostgreSQL; MySQL; SQLite; MongoDB</t>
+  </si>
+  <si>
+    <t>Usando OVER(PARTITION BY); Usando LIMIT; Usando CASE WHEN; Con INNER JOIN</t>
+  </si>
+  <si>
+    <t>Reducir espacio; Aumentar almacenamiento; Mejorar el rendimiento de búsqueda; Eliminar claves duplicadas</t>
+  </si>
+  <si>
+    <t>Una variable global; Un loop; Un bloque de código reutilizable; Un tipo de string</t>
+  </si>
+  <si>
+    <t>def; func; class; lambda</t>
+  </si>
+  <si>
+    <t>Conjunto de datos únicos; Diccionario; Colección ordenada y mutable; Objeto inmutable</t>
+  </si>
+  <si>
+    <t>Una función que retorna HTML; Una clase especial; Una función que modifica el comportamiento de otra función; Una librería externa</t>
+  </si>
+  <si>
+    <t>Duplicar clases; Crear clases independientes; Extender una clase base; Eliminar métodos</t>
+  </si>
+  <si>
+    <t>function; lambda; class; def</t>
+  </si>
+  <si>
+    <t>Eliminar clases; Acceder a funciones privadas; Usar una misma interfaz con múltiples comportamientos; Herencia múltiple</t>
+  </si>
+  <si>
+    <t>Define un módulo; Inicializa una instancia de clase; Ejecuta un import; Define una constante</t>
+  </si>
+  <si>
+    <t>Una clase que hereda de otra; Una clase que modifica otras clases; Una función decoradora; Una API externa</t>
+  </si>
+  <si>
+    <t>threading; os; sys; uuid</t>
+  </si>
+  <si>
+    <t>Un tipo de API que usa HTTP</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Una ruta a un recurso específico</t>
+  </si>
+  <si>
+    <t>Las no relacionales no tienen esquema fijo</t>
+  </si>
+  <si>
+    <t>requests</t>
+  </si>
+  <si>
+    <t>OAuth2</t>
+  </si>
+  <si>
+    <t>Separar los datos en bloques para su consumo</t>
+  </si>
+  <si>
+    <t>pymongo</t>
+  </si>
+  <si>
+    <t>Con requests y psycopg2</t>
+  </si>
+  <si>
+    <t>Se diseña la API antes del backend</t>
+  </si>
+  <si>
+    <t>Una plataforma de mensajería por eventos</t>
+  </si>
+  <si>
+    <t>Un canal de comunicación</t>
+  </si>
+  <si>
+    <t>Un generador de eventos</t>
+  </si>
+  <si>
+    <t>Lee mensajes desde un topic</t>
+  </si>
+  <si>
+    <t>Debezium</t>
+  </si>
+  <si>
+    <t>Distribuye y almacena mensajes</t>
+  </si>
+  <si>
+    <t>Distribuida</t>
+  </si>
+  <si>
+    <t>Capturar cambios en bases de datos</t>
+  </si>
+  <si>
+    <t>Brokers, topics y zookeepers</t>
+  </si>
+  <si>
+    <t>Persistencia de mensajes y alto throughput</t>
+  </si>
+  <si>
+    <t>Una API de Python para Apache Spark</t>
+  </si>
+  <si>
+    <t>Almacena datos en memoria distribuida</t>
+  </si>
+  <si>
+    <t>Una estructura de datos tabular</t>
+  </si>
+  <si>
+    <t>Escala horizontalmente con grandes volúmenes</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>Procesamiento en tiempo real de flujos de datos</t>
+  </si>
+  <si>
+    <t>Con spark.write.jdbc()</t>
+  </si>
+  <si>
+    <t>Un rango de tiempo o registros</t>
+  </si>
+  <si>
+    <t>Con el número de particiones</t>
+  </si>
+  <si>
+    <t>Ejecutar operaciones cuando se requiere una acción</t>
+  </si>
+  <si>
+    <t>Recupera datos de una tabla</t>
+  </si>
+  <si>
+    <t>ORDER BY</t>
+  </si>
+  <si>
+    <t>JOIN</t>
+  </si>
+  <si>
+    <t>Agrupa datos por columnas</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>Una consulta dentro de otra</t>
+  </si>
+  <si>
+    <t>LEFT devuelve todos los registros de la tabla izquierda</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>Usando OVER(PARTITION BY)</t>
+  </si>
+  <si>
+    <t>Mejorar el rendimiento de búsqueda</t>
+  </si>
+  <si>
+    <t>Un bloque de código reutilizable</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>Colección ordenada y mutable</t>
+  </si>
+  <si>
+    <t>Una función que modifica el comportamiento de otra función</t>
+  </si>
+  <si>
+    <t>Extender una clase base</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Usar una misma interfaz con múltiples comportamientos</t>
+  </si>
+  <si>
+    <t>Inicializa una instancia de clase</t>
+  </si>
+  <si>
+    <t>Una clase que modifica otras clases</t>
+  </si>
+  <si>
+    <t>threading</t>
   </si>
 </sst>
 </file>
@@ -641,7 +860,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,10 +894,10 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -692,10 +911,10 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -709,10 +928,10 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -720,16 +939,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -737,16 +956,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -760,10 +979,10 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -777,10 +996,10 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -794,10 +1013,10 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -805,16 +1024,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -822,101 +1041,101 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -924,16 +1143,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -941,16 +1160,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -958,16 +1177,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -975,16 +1194,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -992,72 +1211,72 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -1066,15 +1285,15 @@
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -1083,18 +1302,18 @@
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
         <v>38</v>
@@ -1103,46 +1322,46 @@
         <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -1151,15 +1370,15 @@
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -1168,15 +1387,15 @@
         <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -1185,15 +1404,15 @@
         <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1202,15 +1421,15 @@
         <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -1219,49 +1438,49 @@
         <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
         <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -1270,15 +1489,15 @@
         <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -1287,15 +1506,15 @@
         <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -1304,639 +1523,214 @@
         <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
         <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
         <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
         <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
         <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
         <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
         <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
         <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
         <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
         <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
         <v>60</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
         <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
         <v>62</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" t="s">
-        <v>88</v>
-      </c>
-      <c r="E55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" t="s">
-        <v>88</v>
-      </c>
-      <c r="E57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" t="s">
-        <v>88</v>
-      </c>
-      <c r="E61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" t="s">
-        <v>88</v>
-      </c>
-      <c r="E62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" t="s">
-        <v>74</v>
-      </c>
-      <c r="D63" t="s">
-        <v>88</v>
-      </c>
-      <c r="E63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" t="s">
-        <v>88</v>
-      </c>
-      <c r="E64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" t="s">
-        <v>76</v>
-      </c>
-      <c r="D65" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66" t="s">
-        <v>88</v>
-      </c>
-      <c r="E66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" t="s">
-        <v>80</v>
-      </c>
-      <c r="D69" t="s">
-        <v>88</v>
-      </c>
-      <c r="E69" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" t="s">
-        <v>81</v>
-      </c>
-      <c r="D70" t="s">
-        <v>88</v>
-      </c>
-      <c r="E70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" t="s">
-        <v>82</v>
-      </c>
-      <c r="D71" t="s">
-        <v>88</v>
-      </c>
-      <c r="E71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" t="s">
-        <v>88</v>
-      </c>
-      <c r="E72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" t="s">
-        <v>84</v>
-      </c>
-      <c r="D73" t="s">
-        <v>88</v>
-      </c>
-      <c r="E73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" t="s">
-        <v>85</v>
-      </c>
-      <c r="D74" t="s">
-        <v>88</v>
-      </c>
-      <c r="E74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" t="s">
-        <v>86</v>
-      </c>
-      <c r="D75" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" t="s">
-        <v>87</v>
-      </c>
-      <c r="D76" t="s">
-        <v>88</v>
-      </c>
-      <c r="E76" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
